--- a/src/main/resources/tp/_export_1140.xlsx
+++ b/src/main/resources/tp/_export_1140.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\test\image\tp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ideaProject\BP3\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1C5DC5-CA2E-4EDD-B0D8-E6B019A796F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CC56D9-CF7E-4C80-9E19-801B98928339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>身份证号（id_card）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>姓名(name)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -48,6 +44,10 @@
   </si>
   <si>
     <t>{{$fe:list t.id_card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号(id_card)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +376,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -388,24 +388,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.2"/>
